--- a/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan Reg  Juli 2020 SUSULAN  Agustus 2020_pwd.xlsx
+++ b/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan Reg  Juli 2020 SUSULAN  Agustus 2020_pwd.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -508,7 +576,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>jygDox</t>
+          <t>PpN7x9</t>
         </is>
       </c>
     </row>
@@ -581,7 +649,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>JwjUOG</t>
+          <t>GTgOb7</t>
         </is>
       </c>
     </row>
@@ -655,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>cFFzwR</t>
+          <t>uyS9oX</t>
         </is>
       </c>
     </row>
@@ -726,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>xbi6Mx</t>
+          <t>uUkOMv</t>
         </is>
       </c>
     </row>
@@ -795,7 +863,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>6vCn45</t>
+          <t>HfSKKF</t>
         </is>
       </c>
     </row>
@@ -862,7 +930,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>52HTep</t>
+          <t>r86Ezq</t>
         </is>
       </c>
     </row>
@@ -931,7 +999,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>EqLzVh</t>
+          <t>t2M8HX</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1068,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>LkftJw</t>
+          <t>IadPtk</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1137,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>GgVhIQ</t>
+          <t>0tOB4q</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1208,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>lcnC9a</t>
+          <t>ZLgA7V</t>
         </is>
       </c>
     </row>
@@ -1209,11 +1277,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>OGBe2m</t>
+          <t>j8V8lU</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan Reg  Juli 2020 SUSULAN  Agustus 2020_pwd.xlsx
+++ b/data/jadwal_sidang/Jadwal Sidang Terjadwal 1 3 dan Reg  Juli 2020 SUSULAN  Agustus 2020_pwd.xlsx
@@ -523,7 +523,9 @@
       <c r="C2" t="n">
         <v>1301160091</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>ICM</t>
@@ -576,7 +578,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>PpN7x9</t>
+          <t>dOL3mg</t>
         </is>
       </c>
     </row>
@@ -649,7 +651,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>GTgOb7</t>
+          <t>A8wlqH</t>
         </is>
       </c>
     </row>
@@ -723,7 +725,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>uyS9oX</t>
+          <t>Z0BXKG</t>
         </is>
       </c>
     </row>
@@ -794,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>uUkOMv</t>
+          <t>CQUWLH</t>
         </is>
       </c>
     </row>
@@ -810,7 +812,9 @@
       <c r="C6" t="n">
         <v>1301154698</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -863,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>HfSKKF</t>
+          <t>3vtZZT</t>
         </is>
       </c>
     </row>
@@ -879,7 +883,9 @@
       <c r="C7" t="n">
         <v>1301154280</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -930,7 +936,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>r86Ezq</t>
+          <t>p18JHh</t>
         </is>
       </c>
     </row>
@@ -946,7 +952,9 @@
       <c r="C8" t="n">
         <v>1301150001</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -999,7 +1007,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>t2M8HX</t>
+          <t>1wB7gY</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1023,9 @@
       <c r="C9" t="n">
         <v>1301164086</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>MCE</t>
@@ -1068,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>IadPtk</t>
+          <t>h6Lu1l</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1094,9 @@
       <c r="C10" t="n">
         <v>1103130149</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -1137,7 +1149,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0tOB4q</t>
+          <t>ategd8</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1220,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>ZLgA7V</t>
+          <t>26H9b7</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1236,9 @@
       <c r="C12" t="n">
         <v>1103130083</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>TELE</t>
@@ -1277,7 +1291,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>j8V8lU</t>
+          <t>vAgC1n</t>
         </is>
       </c>
     </row>
